--- a/Team/Team01/Sprint Backlog.xlsx
+++ b/Team/Team01/Sprint Backlog.xlsx
@@ -714,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="L112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N121" sqref="N121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,9 +897,13 @@
       <c r="O4" s="9">
         <v>6</v>
       </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="P4" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0</v>
+      </c>
+      <c r="R4" s="9"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -949,10 +953,14 @@
         <v>6</v>
       </c>
       <c r="O5" s="2">
-        <v>6</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="P5" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
@@ -1051,10 +1059,18 @@
       <c r="O7" s="2">
         <v>12</v>
       </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
+      <c r="P7" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>6</v>
+      </c>
+      <c r="R7" s="2">
+        <v>4</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
@@ -1105,7 +1121,9 @@
       <c r="O8" s="2">
         <v>4</v>
       </c>
-      <c r="P8" s="2"/>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -1159,11 +1177,21 @@
       <c r="O9" s="2">
         <v>4</v>
       </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
+      <c r="P9" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>4</v>
+      </c>
+      <c r="R9" s="2">
+        <v>4</v>
+      </c>
+      <c r="S9" s="2">
+        <v>4</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
@@ -1297,11 +1325,21 @@
       <c r="O12" s="2">
         <v>4</v>
       </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="P12" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>4</v>
+      </c>
+      <c r="R12" s="2">
+        <v>4</v>
+      </c>
+      <c r="S12" s="2">
+        <v>4</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
@@ -1351,10 +1389,18 @@
       <c r="O13" s="2">
         <v>2</v>
       </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
+      <c r="P13" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>2</v>
+      </c>
+      <c r="R13" s="2">
+        <v>2</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
@@ -1405,10 +1451,18 @@
       <c r="O14" s="2">
         <v>2</v>
       </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
+      <c r="P14" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2">
+        <v>2</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
@@ -1543,10 +1597,18 @@
       <c r="O17" s="2">
         <v>4</v>
       </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
+      <c r="P17" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>2</v>
+      </c>
+      <c r="R17" s="2">
+        <v>2</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0</v>
+      </c>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
@@ -1597,9 +1659,15 @@
       <c r="O18" s="2">
         <v>2</v>
       </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
+      <c r="P18" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
@@ -1651,10 +1719,18 @@
       <c r="O19" s="2">
         <v>2</v>
       </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
+      <c r="P19" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>2</v>
+      </c>
+      <c r="R19" s="2">
+        <v>2</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0</v>
+      </c>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
@@ -1743,9 +1819,15 @@
       <c r="O21" s="2">
         <v>4</v>
       </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
+      <c r="P21" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>2</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0</v>
+      </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -1847,11 +1929,21 @@
       <c r="O23" s="2">
         <v>6</v>
       </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
+      <c r="P23" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>6</v>
+      </c>
+      <c r="R23" s="2">
+        <v>6</v>
+      </c>
+      <c r="S23" s="2">
+        <v>3</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0</v>
+      </c>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
@@ -1901,11 +1993,21 @@
       <c r="O24" s="2">
         <v>4</v>
       </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
+      <c r="P24" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>2</v>
+      </c>
+      <c r="R24" s="2">
+        <v>2</v>
+      </c>
+      <c r="S24" s="2">
+        <v>2</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0</v>
+      </c>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
@@ -1955,11 +2057,21 @@
       <c r="O25" s="2">
         <v>2</v>
       </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
+      <c r="P25" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>2</v>
+      </c>
+      <c r="R25" s="2">
+        <v>2</v>
+      </c>
+      <c r="S25" s="2">
+        <v>2</v>
+      </c>
+      <c r="T25" s="2">
+        <v>0</v>
+      </c>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
@@ -2047,9 +2159,15 @@
       <c r="O27" s="2">
         <v>4</v>
       </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
+      <c r="P27" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>2</v>
+      </c>
+      <c r="R27" s="2">
+        <v>0</v>
+      </c>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -2149,11 +2267,21 @@
       <c r="O29" s="2">
         <v>6</v>
       </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
+      <c r="P29" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>6</v>
+      </c>
+      <c r="R29" s="2">
+        <v>6</v>
+      </c>
+      <c r="S29" s="2">
+        <v>2</v>
+      </c>
+      <c r="T29" s="2">
+        <v>0</v>
+      </c>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
@@ -2203,11 +2331,21 @@
       <c r="O30" s="2">
         <v>4</v>
       </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
+      <c r="P30" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>4</v>
+      </c>
+      <c r="R30" s="2">
+        <v>4</v>
+      </c>
+      <c r="S30" s="2">
+        <v>4</v>
+      </c>
+      <c r="T30" s="2">
+        <v>0</v>
+      </c>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
@@ -2257,11 +2395,21 @@
       <c r="O31" s="2">
         <v>2</v>
       </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
+      <c r="P31" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>2</v>
+      </c>
+      <c r="R31" s="2">
+        <v>2</v>
+      </c>
+      <c r="S31" s="2">
+        <v>2</v>
+      </c>
+      <c r="T31" s="2">
+        <v>0</v>
+      </c>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
@@ -2349,9 +2497,15 @@
       <c r="O33" s="2">
         <v>4</v>
       </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
+      <c r="P33" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>2</v>
+      </c>
+      <c r="R33" s="2">
+        <v>0</v>
+      </c>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
@@ -2455,12 +2609,24 @@
       <c r="O35" s="2">
         <v>8</v>
       </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
+      <c r="P35" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>8</v>
+      </c>
+      <c r="R35" s="2">
+        <v>8</v>
+      </c>
+      <c r="S35" s="2">
+        <v>6</v>
+      </c>
+      <c r="T35" s="2">
+        <v>3</v>
+      </c>
+      <c r="U35" s="2">
+        <v>0</v>
+      </c>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
@@ -2509,12 +2675,24 @@
       <c r="O36" s="2">
         <v>4</v>
       </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
+      <c r="P36" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>4</v>
+      </c>
+      <c r="R36" s="2">
+        <v>4</v>
+      </c>
+      <c r="S36" s="2">
+        <v>4</v>
+      </c>
+      <c r="T36" s="2">
+        <v>4</v>
+      </c>
+      <c r="U36" s="2">
+        <v>0</v>
+      </c>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
@@ -2563,13 +2741,27 @@
       <c r="O37" s="2">
         <v>4</v>
       </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
+      <c r="P37" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>4</v>
+      </c>
+      <c r="R37" s="2">
+        <v>4</v>
+      </c>
+      <c r="S37" s="2">
+        <v>4</v>
+      </c>
+      <c r="T37" s="2">
+        <v>4</v>
+      </c>
+      <c r="U37" s="2">
+        <v>2</v>
+      </c>
+      <c r="V37" s="2">
+        <v>0</v>
+      </c>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
@@ -2703,10 +2895,18 @@
       <c r="O40" s="2">
         <v>4</v>
       </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
+      <c r="P40" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>2</v>
+      </c>
+      <c r="R40" s="2">
+        <v>2</v>
+      </c>
+      <c r="S40" s="2">
+        <v>0</v>
+      </c>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
@@ -2757,12 +2957,24 @@
       <c r="O41" s="2">
         <v>2</v>
       </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
+      <c r="P41" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>2</v>
+      </c>
+      <c r="R41" s="2">
+        <v>2</v>
+      </c>
+      <c r="S41" s="2">
+        <v>2</v>
+      </c>
+      <c r="T41" s="2">
+        <v>2</v>
+      </c>
+      <c r="U41" s="2">
+        <v>0</v>
+      </c>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
@@ -2811,12 +3023,24 @@
       <c r="O42" s="2">
         <v>2</v>
       </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
+      <c r="P42" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>2</v>
+      </c>
+      <c r="R42" s="2">
+        <v>2</v>
+      </c>
+      <c r="S42" s="2">
+        <v>2</v>
+      </c>
+      <c r="T42" s="2">
+        <v>2</v>
+      </c>
+      <c r="U42" s="2">
+        <v>0</v>
+      </c>
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
@@ -2903,11 +3127,21 @@
       <c r="O44" s="2">
         <v>4</v>
       </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
+      <c r="P44" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>4</v>
+      </c>
+      <c r="R44" s="2">
+        <v>4</v>
+      </c>
+      <c r="S44" s="2">
+        <v>0</v>
+      </c>
+      <c r="T44" s="2">
+        <v>0</v>
+      </c>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
@@ -3009,13 +3243,27 @@
       <c r="O46" s="2">
         <v>12</v>
       </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
+      <c r="P46" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>12</v>
+      </c>
+      <c r="R46" s="2">
+        <v>12</v>
+      </c>
+      <c r="S46" s="2">
+        <v>12</v>
+      </c>
+      <c r="T46" s="2">
+        <v>12</v>
+      </c>
+      <c r="U46" s="2">
+        <v>8</v>
+      </c>
+      <c r="V46" s="2">
+        <v>0</v>
+      </c>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
@@ -3063,13 +3311,27 @@
       <c r="O47" s="2">
         <v>4</v>
       </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
+      <c r="P47" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>4</v>
+      </c>
+      <c r="R47" s="2">
+        <v>4</v>
+      </c>
+      <c r="S47" s="2">
+        <v>4</v>
+      </c>
+      <c r="T47" s="2">
+        <v>4</v>
+      </c>
+      <c r="U47" s="2">
+        <v>2</v>
+      </c>
+      <c r="V47" s="2">
+        <v>0</v>
+      </c>
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
@@ -3117,12 +3379,24 @@
       <c r="O48" s="2">
         <v>4</v>
       </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
+      <c r="P48" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>4</v>
+      </c>
+      <c r="R48" s="2">
+        <v>4</v>
+      </c>
+      <c r="S48" s="2">
+        <v>4</v>
+      </c>
+      <c r="T48" s="2">
+        <v>4</v>
+      </c>
+      <c r="U48" s="2">
+        <v>0</v>
+      </c>
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
@@ -3209,10 +3483,18 @@
       <c r="O50" s="2">
         <v>4</v>
       </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
+      <c r="P50" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>4</v>
+      </c>
+      <c r="R50" s="2">
+        <v>4</v>
+      </c>
+      <c r="S50" s="2">
+        <v>0</v>
+      </c>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
@@ -3315,14 +3597,30 @@
       <c r="O52" s="2">
         <v>8</v>
       </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
+      <c r="P52" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>8</v>
+      </c>
+      <c r="R52" s="2">
+        <v>8</v>
+      </c>
+      <c r="S52" s="2">
+        <v>8</v>
+      </c>
+      <c r="T52" s="2">
+        <v>8</v>
+      </c>
+      <c r="U52" s="2">
+        <v>8</v>
+      </c>
+      <c r="V52" s="2">
+        <v>4</v>
+      </c>
+      <c r="W52" s="2">
+        <v>0</v>
+      </c>
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
@@ -3369,13 +3667,27 @@
       <c r="O53" s="2">
         <v>4</v>
       </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
+      <c r="P53" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>4</v>
+      </c>
+      <c r="R53" s="2">
+        <v>4</v>
+      </c>
+      <c r="S53" s="2">
+        <v>4</v>
+      </c>
+      <c r="T53" s="2">
+        <v>4</v>
+      </c>
+      <c r="U53" s="2">
+        <v>4</v>
+      </c>
+      <c r="V53" s="2">
+        <v>0</v>
+      </c>
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
@@ -3423,14 +3735,30 @@
       <c r="O54" s="2">
         <v>4</v>
       </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
+      <c r="P54" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>4</v>
+      </c>
+      <c r="R54" s="2">
+        <v>4</v>
+      </c>
+      <c r="S54" s="2">
+        <v>4</v>
+      </c>
+      <c r="T54" s="2">
+        <v>4</v>
+      </c>
+      <c r="U54" s="2">
+        <v>4</v>
+      </c>
+      <c r="V54" s="2">
+        <v>4</v>
+      </c>
+      <c r="W54" s="2">
+        <v>0</v>
+      </c>
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
@@ -3515,10 +3843,18 @@
       <c r="O56" s="2">
         <v>4</v>
       </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
+      <c r="P56" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>4</v>
+      </c>
+      <c r="R56" s="2">
+        <v>4</v>
+      </c>
+      <c r="S56" s="2">
+        <v>0</v>
+      </c>
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
@@ -3569,9 +3905,15 @@
       <c r="O57" s="2">
         <v>0</v>
       </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
+      <c r="P57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>0</v>
+      </c>
+      <c r="R57" s="2">
+        <v>0</v>
+      </c>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
@@ -3623,14 +3965,30 @@
       <c r="O58" s="2">
         <v>8</v>
       </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
-      <c r="V58" s="2"/>
-      <c r="W58" s="2"/>
+      <c r="P58" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>8</v>
+      </c>
+      <c r="R58" s="2">
+        <v>8</v>
+      </c>
+      <c r="S58" s="2">
+        <v>8</v>
+      </c>
+      <c r="T58" s="2">
+        <v>8</v>
+      </c>
+      <c r="U58" s="2">
+        <v>8</v>
+      </c>
+      <c r="V58" s="2">
+        <v>4</v>
+      </c>
+      <c r="W58" s="2">
+        <v>0</v>
+      </c>
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
@@ -3677,14 +4035,30 @@
       <c r="O59" s="2">
         <v>4</v>
       </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
-      <c r="U59" s="2"/>
-      <c r="V59" s="2"/>
-      <c r="W59" s="2"/>
+      <c r="P59" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>4</v>
+      </c>
+      <c r="R59" s="2">
+        <v>4</v>
+      </c>
+      <c r="S59" s="2">
+        <v>4</v>
+      </c>
+      <c r="T59" s="2">
+        <v>4</v>
+      </c>
+      <c r="U59" s="2">
+        <v>4</v>
+      </c>
+      <c r="V59" s="2">
+        <v>2</v>
+      </c>
+      <c r="W59" s="2">
+        <v>0</v>
+      </c>
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
@@ -3731,14 +4105,30 @@
       <c r="O60" s="2">
         <v>4</v>
       </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="2"/>
-      <c r="T60" s="2"/>
-      <c r="U60" s="2"/>
-      <c r="V60" s="2"/>
-      <c r="W60" s="2"/>
+      <c r="P60" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>4</v>
+      </c>
+      <c r="R60" s="2">
+        <v>4</v>
+      </c>
+      <c r="S60" s="2">
+        <v>4</v>
+      </c>
+      <c r="T60" s="2">
+        <v>4</v>
+      </c>
+      <c r="U60" s="2">
+        <v>4</v>
+      </c>
+      <c r="V60" s="2">
+        <v>4</v>
+      </c>
+      <c r="W60" s="2">
+        <v>0</v>
+      </c>
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
@@ -3823,11 +4213,21 @@
       <c r="O62" s="2">
         <v>4</v>
       </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
-      <c r="S62" s="2"/>
-      <c r="T62" s="2"/>
+      <c r="P62" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>4</v>
+      </c>
+      <c r="R62" s="2">
+        <v>4</v>
+      </c>
+      <c r="S62" s="2">
+        <v>0</v>
+      </c>
+      <c r="T62" s="2">
+        <v>0</v>
+      </c>
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
@@ -3877,9 +4277,15 @@
       <c r="O63" s="2">
         <v>0</v>
       </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
+      <c r="P63" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>0</v>
+      </c>
+      <c r="R63" s="2">
+        <v>0</v>
+      </c>
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
@@ -3931,15 +4337,33 @@
       <c r="O64" s="2">
         <v>8</v>
       </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
-      <c r="S64" s="2"/>
-      <c r="T64" s="2"/>
-      <c r="U64" s="2"/>
-      <c r="V64" s="2"/>
-      <c r="W64" s="2"/>
-      <c r="X64" s="2"/>
+      <c r="P64" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>8</v>
+      </c>
+      <c r="R64" s="2">
+        <v>8</v>
+      </c>
+      <c r="S64" s="2">
+        <v>8</v>
+      </c>
+      <c r="T64" s="2">
+        <v>8</v>
+      </c>
+      <c r="U64" s="2">
+        <v>8</v>
+      </c>
+      <c r="V64" s="2">
+        <v>8</v>
+      </c>
+      <c r="W64" s="2">
+        <v>8</v>
+      </c>
+      <c r="X64" s="2">
+        <v>0</v>
+      </c>
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
@@ -3985,15 +4409,33 @@
       <c r="O65" s="2">
         <v>4</v>
       </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
-      <c r="S65" s="2"/>
-      <c r="T65" s="2"/>
-      <c r="U65" s="2"/>
-      <c r="V65" s="2"/>
-      <c r="W65" s="2"/>
-      <c r="X65" s="2"/>
+      <c r="P65" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>4</v>
+      </c>
+      <c r="R65" s="2">
+        <v>4</v>
+      </c>
+      <c r="S65" s="2">
+        <v>4</v>
+      </c>
+      <c r="T65" s="2">
+        <v>4</v>
+      </c>
+      <c r="U65" s="2">
+        <v>4</v>
+      </c>
+      <c r="V65" s="2">
+        <v>4</v>
+      </c>
+      <c r="W65" s="2">
+        <v>4</v>
+      </c>
+      <c r="X65" s="2">
+        <v>0</v>
+      </c>
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
@@ -4039,16 +4481,36 @@
       <c r="O66" s="2">
         <v>4</v>
       </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
-      <c r="S66" s="2"/>
-      <c r="T66" s="2"/>
-      <c r="U66" s="2"/>
-      <c r="V66" s="2"/>
-      <c r="W66" s="2"/>
-      <c r="X66" s="2"/>
-      <c r="Y66" s="2"/>
+      <c r="P66" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>4</v>
+      </c>
+      <c r="R66" s="2">
+        <v>4</v>
+      </c>
+      <c r="S66" s="2">
+        <v>4</v>
+      </c>
+      <c r="T66" s="2">
+        <v>4</v>
+      </c>
+      <c r="U66" s="2">
+        <v>4</v>
+      </c>
+      <c r="V66" s="2">
+        <v>4</v>
+      </c>
+      <c r="W66" s="2">
+        <v>4</v>
+      </c>
+      <c r="X66" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y66" s="2">
+        <v>0</v>
+      </c>
       <c r="Z66" s="2"/>
     </row>
     <row r="67" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4131,11 +4593,21 @@
       <c r="O68" s="2">
         <v>4</v>
       </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
-      <c r="T68" s="2"/>
+      <c r="P68" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>4</v>
+      </c>
+      <c r="R68" s="2">
+        <v>4</v>
+      </c>
+      <c r="S68" s="2">
+        <v>0</v>
+      </c>
+      <c r="T68" s="2">
+        <v>0</v>
+      </c>
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
@@ -4237,15 +4709,33 @@
       <c r="O70" s="2">
         <v>6</v>
       </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
-      <c r="R70" s="2"/>
-      <c r="S70" s="2"/>
-      <c r="T70" s="2"/>
-      <c r="U70" s="2"/>
-      <c r="V70" s="2"/>
-      <c r="W70" s="2"/>
-      <c r="X70" s="2"/>
+      <c r="P70" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>6</v>
+      </c>
+      <c r="R70" s="2">
+        <v>6</v>
+      </c>
+      <c r="S70" s="2">
+        <v>6</v>
+      </c>
+      <c r="T70" s="2">
+        <v>6</v>
+      </c>
+      <c r="U70" s="2">
+        <v>6</v>
+      </c>
+      <c r="V70" s="2">
+        <v>6</v>
+      </c>
+      <c r="W70" s="2">
+        <v>6</v>
+      </c>
+      <c r="X70" s="2">
+        <v>0</v>
+      </c>
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
@@ -4291,15 +4781,33 @@
       <c r="O71" s="2">
         <v>2</v>
       </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
-      <c r="R71" s="2"/>
-      <c r="S71" s="2"/>
-      <c r="T71" s="2"/>
-      <c r="U71" s="2"/>
-      <c r="V71" s="2"/>
-      <c r="W71" s="2"/>
-      <c r="X71" s="2"/>
+      <c r="P71" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>2</v>
+      </c>
+      <c r="R71" s="2">
+        <v>2</v>
+      </c>
+      <c r="S71" s="2">
+        <v>2</v>
+      </c>
+      <c r="T71" s="2">
+        <v>2</v>
+      </c>
+      <c r="U71" s="2">
+        <v>2</v>
+      </c>
+      <c r="V71" s="2">
+        <v>2</v>
+      </c>
+      <c r="W71" s="2">
+        <v>2</v>
+      </c>
+      <c r="X71" s="2">
+        <v>0</v>
+      </c>
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
@@ -4345,15 +4853,33 @@
       <c r="O72" s="2">
         <v>2</v>
       </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="2"/>
-      <c r="S72" s="2"/>
-      <c r="T72" s="2"/>
-      <c r="U72" s="2"/>
-      <c r="V72" s="2"/>
-      <c r="W72" s="2"/>
-      <c r="X72" s="2"/>
+      <c r="P72" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>2</v>
+      </c>
+      <c r="R72" s="2">
+        <v>2</v>
+      </c>
+      <c r="S72" s="2">
+        <v>2</v>
+      </c>
+      <c r="T72" s="2">
+        <v>2</v>
+      </c>
+      <c r="U72" s="2">
+        <v>2</v>
+      </c>
+      <c r="V72" s="2">
+        <v>2</v>
+      </c>
+      <c r="W72" s="2">
+        <v>2</v>
+      </c>
+      <c r="X72" s="2">
+        <v>0</v>
+      </c>
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
@@ -4437,10 +4963,18 @@
       <c r="O74" s="2">
         <v>4</v>
       </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
-      <c r="S74" s="2"/>
+      <c r="P74" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>4</v>
+      </c>
+      <c r="R74" s="2">
+        <v>4</v>
+      </c>
+      <c r="S74" s="2">
+        <v>0</v>
+      </c>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
@@ -4543,16 +5077,36 @@
       <c r="O76" s="2">
         <v>6</v>
       </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
-      <c r="T76" s="2"/>
-      <c r="U76" s="2"/>
-      <c r="V76" s="2"/>
-      <c r="W76" s="2"/>
-      <c r="X76" s="2"/>
-      <c r="Y76" s="2"/>
+      <c r="P76" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>6</v>
+      </c>
+      <c r="R76" s="2">
+        <v>6</v>
+      </c>
+      <c r="S76" s="2">
+        <v>6</v>
+      </c>
+      <c r="T76" s="2">
+        <v>6</v>
+      </c>
+      <c r="U76" s="2">
+        <v>6</v>
+      </c>
+      <c r="V76" s="2">
+        <v>6</v>
+      </c>
+      <c r="W76" s="2">
+        <v>6</v>
+      </c>
+      <c r="X76" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y76" s="2">
+        <v>0</v>
+      </c>
       <c r="Z76" s="2"/>
     </row>
     <row r="77" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4597,16 +5151,36 @@
       <c r="O77" s="2">
         <v>2</v>
       </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
-      <c r="T77" s="2"/>
-      <c r="U77" s="2"/>
-      <c r="V77" s="2"/>
-      <c r="W77" s="2"/>
-      <c r="X77" s="2"/>
-      <c r="Y77" s="2"/>
+      <c r="P77" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>2</v>
+      </c>
+      <c r="R77" s="2">
+        <v>2</v>
+      </c>
+      <c r="S77" s="2">
+        <v>2</v>
+      </c>
+      <c r="T77" s="2">
+        <v>2</v>
+      </c>
+      <c r="U77" s="2">
+        <v>2</v>
+      </c>
+      <c r="V77" s="2">
+        <v>2</v>
+      </c>
+      <c r="W77" s="2">
+        <v>2</v>
+      </c>
+      <c r="X77" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y77" s="2">
+        <v>0</v>
+      </c>
       <c r="Z77" s="2"/>
     </row>
     <row r="78" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4651,16 +5225,36 @@
       <c r="O78" s="2">
         <v>2</v>
       </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
-      <c r="T78" s="2"/>
-      <c r="U78" s="2"/>
-      <c r="V78" s="2"/>
-      <c r="W78" s="2"/>
-      <c r="X78" s="2"/>
-      <c r="Y78" s="2"/>
+      <c r="P78" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>2</v>
+      </c>
+      <c r="R78" s="2">
+        <v>2</v>
+      </c>
+      <c r="S78" s="2">
+        <v>2</v>
+      </c>
+      <c r="T78" s="2">
+        <v>2</v>
+      </c>
+      <c r="U78" s="2">
+        <v>2</v>
+      </c>
+      <c r="V78" s="2">
+        <v>2</v>
+      </c>
+      <c r="W78" s="2">
+        <v>2</v>
+      </c>
+      <c r="X78" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y78" s="2">
+        <v>0</v>
+      </c>
       <c r="Z78" s="2"/>
     </row>
     <row r="79" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4797,16 +5391,36 @@
       <c r="O81" s="2">
         <v>4</v>
       </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
-      <c r="R81" s="2"/>
-      <c r="S81" s="2"/>
-      <c r="T81" s="2"/>
-      <c r="U81" s="2"/>
-      <c r="V81" s="2"/>
-      <c r="W81" s="2"/>
-      <c r="X81" s="2"/>
-      <c r="Y81" s="2"/>
+      <c r="P81" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>4</v>
+      </c>
+      <c r="R81" s="2">
+        <v>4</v>
+      </c>
+      <c r="S81" s="2">
+        <v>4</v>
+      </c>
+      <c r="T81" s="2">
+        <v>4</v>
+      </c>
+      <c r="U81" s="2">
+        <v>4</v>
+      </c>
+      <c r="V81" s="2">
+        <v>4</v>
+      </c>
+      <c r="W81" s="2">
+        <v>4</v>
+      </c>
+      <c r="X81" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y81" s="2">
+        <v>0</v>
+      </c>
       <c r="Z81" s="2"/>
     </row>
     <row r="82" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4851,16 +5465,36 @@
       <c r="O82" s="2">
         <v>2</v>
       </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
-      <c r="S82" s="2"/>
-      <c r="T82" s="2"/>
-      <c r="U82" s="2"/>
-      <c r="V82" s="2"/>
-      <c r="W82" s="2"/>
-      <c r="X82" s="2"/>
-      <c r="Y82" s="2"/>
+      <c r="P82" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>2</v>
+      </c>
+      <c r="R82" s="2">
+        <v>2</v>
+      </c>
+      <c r="S82" s="2">
+        <v>2</v>
+      </c>
+      <c r="T82" s="2">
+        <v>2</v>
+      </c>
+      <c r="U82" s="2">
+        <v>2</v>
+      </c>
+      <c r="V82" s="2">
+        <v>2</v>
+      </c>
+      <c r="W82" s="2">
+        <v>2</v>
+      </c>
+      <c r="X82" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y82" s="2">
+        <v>0</v>
+      </c>
       <c r="Z82" s="2"/>
     </row>
     <row r="83" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4905,17 +5539,39 @@
       <c r="O83" s="2">
         <v>2</v>
       </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
-      <c r="S83" s="2"/>
-      <c r="T83" s="2"/>
-      <c r="U83" s="2"/>
-      <c r="V83" s="2"/>
-      <c r="W83" s="2"/>
-      <c r="X83" s="2"/>
-      <c r="Y83" s="2"/>
-      <c r="Z83" s="2"/>
+      <c r="P83" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>2</v>
+      </c>
+      <c r="R83" s="2">
+        <v>2</v>
+      </c>
+      <c r="S83" s="2">
+        <v>2</v>
+      </c>
+      <c r="T83" s="2">
+        <v>2</v>
+      </c>
+      <c r="U83" s="2">
+        <v>2</v>
+      </c>
+      <c r="V83" s="2">
+        <v>2</v>
+      </c>
+      <c r="W83" s="2">
+        <v>2</v>
+      </c>
+      <c r="X83" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y83" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z83" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14"/>
@@ -4997,16 +5653,36 @@
       <c r="O85" s="2">
         <v>4</v>
       </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" s="2"/>
-      <c r="R85" s="2"/>
-      <c r="S85" s="2"/>
-      <c r="T85" s="2"/>
-      <c r="U85" s="2"/>
-      <c r="V85" s="2"/>
-      <c r="W85" s="2"/>
-      <c r="X85" s="2"/>
-      <c r="Y85" s="2"/>
+      <c r="P85" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>4</v>
+      </c>
+      <c r="R85" s="2">
+        <v>4</v>
+      </c>
+      <c r="S85" s="2">
+        <v>4</v>
+      </c>
+      <c r="T85" s="2">
+        <v>4</v>
+      </c>
+      <c r="U85" s="2">
+        <v>4</v>
+      </c>
+      <c r="V85" s="2">
+        <v>4</v>
+      </c>
+      <c r="W85" s="2">
+        <v>4</v>
+      </c>
+      <c r="X85" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y85" s="2">
+        <v>0</v>
+      </c>
       <c r="Z85" s="2"/>
     </row>
     <row r="86" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5101,17 +5777,39 @@
       <c r="O87" s="2">
         <v>8</v>
       </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" s="2"/>
-      <c r="R87" s="2"/>
-      <c r="S87" s="2"/>
-      <c r="T87" s="2"/>
-      <c r="U87" s="2"/>
-      <c r="V87" s="2"/>
-      <c r="W87" s="2"/>
-      <c r="X87" s="2"/>
-      <c r="Y87" s="2"/>
-      <c r="Z87" s="2"/>
+      <c r="P87" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>8</v>
+      </c>
+      <c r="R87" s="2">
+        <v>8</v>
+      </c>
+      <c r="S87" s="2">
+        <v>8</v>
+      </c>
+      <c r="T87" s="2">
+        <v>8</v>
+      </c>
+      <c r="U87" s="2">
+        <v>8</v>
+      </c>
+      <c r="V87" s="2">
+        <v>8</v>
+      </c>
+      <c r="W87" s="2">
+        <v>8</v>
+      </c>
+      <c r="X87" s="2">
+        <v>8</v>
+      </c>
+      <c r="Y87" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z87" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
@@ -5155,17 +5853,39 @@
       <c r="O88" s="2">
         <v>4</v>
       </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="2"/>
-      <c r="R88" s="2"/>
-      <c r="S88" s="2"/>
-      <c r="T88" s="2"/>
-      <c r="U88" s="2"/>
-      <c r="V88" s="2"/>
-      <c r="W88" s="2"/>
-      <c r="X88" s="2"/>
-      <c r="Y88" s="2"/>
-      <c r="Z88" s="2"/>
+      <c r="P88" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>4</v>
+      </c>
+      <c r="R88" s="2">
+        <v>4</v>
+      </c>
+      <c r="S88" s="2">
+        <v>4</v>
+      </c>
+      <c r="T88" s="2">
+        <v>4</v>
+      </c>
+      <c r="U88" s="2">
+        <v>4</v>
+      </c>
+      <c r="V88" s="2">
+        <v>4</v>
+      </c>
+      <c r="W88" s="2">
+        <v>4</v>
+      </c>
+      <c r="X88" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y88" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z88" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13"/>
@@ -5209,17 +5929,39 @@
       <c r="O89" s="2">
         <v>4</v>
       </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" s="2"/>
-      <c r="R89" s="2"/>
-      <c r="S89" s="2"/>
-      <c r="T89" s="2"/>
-      <c r="U89" s="2"/>
-      <c r="V89" s="2"/>
-      <c r="W89" s="2"/>
-      <c r="X89" s="2"/>
-      <c r="Y89" s="2"/>
-      <c r="Z89" s="2"/>
+      <c r="P89" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>4</v>
+      </c>
+      <c r="R89" s="2">
+        <v>4</v>
+      </c>
+      <c r="S89" s="2">
+        <v>4</v>
+      </c>
+      <c r="T89" s="2">
+        <v>4</v>
+      </c>
+      <c r="U89" s="2">
+        <v>4</v>
+      </c>
+      <c r="V89" s="2">
+        <v>4</v>
+      </c>
+      <c r="W89" s="2">
+        <v>4</v>
+      </c>
+      <c r="X89" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y89" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z89" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14"/>
@@ -5355,17 +6097,39 @@
       <c r="O92" s="2">
         <v>8</v>
       </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" s="2"/>
-      <c r="R92" s="2"/>
-      <c r="S92" s="2"/>
-      <c r="T92" s="2"/>
-      <c r="U92" s="2"/>
-      <c r="V92" s="2"/>
-      <c r="W92" s="2"/>
-      <c r="X92" s="2"/>
-      <c r="Y92" s="2"/>
-      <c r="Z92" s="2"/>
+      <c r="P92" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>8</v>
+      </c>
+      <c r="R92" s="2">
+        <v>8</v>
+      </c>
+      <c r="S92" s="2">
+        <v>8</v>
+      </c>
+      <c r="T92" s="2">
+        <v>8</v>
+      </c>
+      <c r="U92" s="2">
+        <v>8</v>
+      </c>
+      <c r="V92" s="2">
+        <v>8</v>
+      </c>
+      <c r="W92" s="2">
+        <v>8</v>
+      </c>
+      <c r="X92" s="2">
+        <v>8</v>
+      </c>
+      <c r="Y92" s="2">
+        <v>8</v>
+      </c>
+      <c r="Z92" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="93" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="13"/>
@@ -5409,17 +6173,39 @@
       <c r="O93" s="2">
         <v>4</v>
       </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" s="2"/>
-      <c r="R93" s="2"/>
-      <c r="S93" s="2"/>
-      <c r="T93" s="2"/>
-      <c r="U93" s="2"/>
-      <c r="V93" s="2"/>
-      <c r="W93" s="2"/>
-      <c r="X93" s="2"/>
-      <c r="Y93" s="2"/>
-      <c r="Z93" s="2"/>
+      <c r="P93" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>4</v>
+      </c>
+      <c r="R93" s="2">
+        <v>4</v>
+      </c>
+      <c r="S93" s="2">
+        <v>4</v>
+      </c>
+      <c r="T93" s="2">
+        <v>4</v>
+      </c>
+      <c r="U93" s="2">
+        <v>4</v>
+      </c>
+      <c r="V93" s="2">
+        <v>4</v>
+      </c>
+      <c r="W93" s="2">
+        <v>4</v>
+      </c>
+      <c r="X93" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y93" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z93" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="94" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="13"/>
@@ -5463,17 +6249,39 @@
       <c r="O94" s="2">
         <v>4</v>
       </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" s="2"/>
-      <c r="R94" s="2"/>
-      <c r="S94" s="2"/>
-      <c r="T94" s="2"/>
-      <c r="U94" s="2"/>
-      <c r="V94" s="2"/>
-      <c r="W94" s="2"/>
-      <c r="X94" s="2"/>
-      <c r="Y94" s="2"/>
-      <c r="Z94" s="2"/>
+      <c r="P94" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>4</v>
+      </c>
+      <c r="R94" s="2">
+        <v>4</v>
+      </c>
+      <c r="S94" s="2">
+        <v>4</v>
+      </c>
+      <c r="T94" s="2">
+        <v>4</v>
+      </c>
+      <c r="U94" s="2">
+        <v>4</v>
+      </c>
+      <c r="V94" s="2">
+        <v>4</v>
+      </c>
+      <c r="W94" s="2">
+        <v>4</v>
+      </c>
+      <c r="X94" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y94" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z94" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="95" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
@@ -5555,10 +6363,18 @@
       <c r="O96" s="2">
         <v>4</v>
       </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" s="2"/>
-      <c r="R96" s="2"/>
-      <c r="S96" s="2"/>
+      <c r="P96" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q96" s="2">
+        <v>4</v>
+      </c>
+      <c r="R96" s="2">
+        <v>4</v>
+      </c>
+      <c r="S96" s="2">
+        <v>0</v>
+      </c>
       <c r="T96" s="2"/>
       <c r="U96" s="2"/>
       <c r="V96" s="2"/>
@@ -5663,17 +6479,39 @@
       <c r="O98" s="2">
         <v>6</v>
       </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" s="2"/>
-      <c r="R98" s="2"/>
-      <c r="S98" s="2"/>
-      <c r="T98" s="2"/>
-      <c r="U98" s="2"/>
-      <c r="V98" s="2"/>
-      <c r="W98" s="2"/>
-      <c r="X98" s="2"/>
-      <c r="Y98" s="2"/>
-      <c r="Z98" s="2"/>
+      <c r="P98" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q98" s="2">
+        <v>6</v>
+      </c>
+      <c r="R98" s="2">
+        <v>6</v>
+      </c>
+      <c r="S98" s="2">
+        <v>3</v>
+      </c>
+      <c r="T98" s="2">
+        <v>3</v>
+      </c>
+      <c r="U98" s="2">
+        <v>3</v>
+      </c>
+      <c r="V98" s="2">
+        <v>3</v>
+      </c>
+      <c r="W98" s="2">
+        <v>3</v>
+      </c>
+      <c r="X98" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y98" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z98" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
@@ -5717,17 +6555,39 @@
       <c r="O99" s="2">
         <v>4</v>
       </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" s="2"/>
-      <c r="R99" s="2"/>
-      <c r="S99" s="2"/>
-      <c r="T99" s="2"/>
-      <c r="U99" s="2"/>
-      <c r="V99" s="2"/>
-      <c r="W99" s="2"/>
-      <c r="X99" s="2"/>
-      <c r="Y99" s="2"/>
-      <c r="Z99" s="2"/>
+      <c r="P99" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q99" s="2">
+        <v>4</v>
+      </c>
+      <c r="R99" s="2">
+        <v>4</v>
+      </c>
+      <c r="S99" s="2">
+        <v>4</v>
+      </c>
+      <c r="T99" s="2">
+        <v>4</v>
+      </c>
+      <c r="U99" s="2">
+        <v>4</v>
+      </c>
+      <c r="V99" s="2">
+        <v>4</v>
+      </c>
+      <c r="W99" s="2">
+        <v>4</v>
+      </c>
+      <c r="X99" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y99" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z99" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
@@ -5771,17 +6631,39 @@
       <c r="O100" s="2">
         <v>4</v>
       </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" s="2"/>
-      <c r="R100" s="2"/>
-      <c r="S100" s="2"/>
-      <c r="T100" s="2"/>
-      <c r="U100" s="2"/>
-      <c r="V100" s="2"/>
-      <c r="W100" s="2"/>
-      <c r="X100" s="2"/>
-      <c r="Y100" s="2"/>
-      <c r="Z100" s="2"/>
+      <c r="P100" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="2">
+        <v>4</v>
+      </c>
+      <c r="R100" s="2">
+        <v>4</v>
+      </c>
+      <c r="S100" s="2">
+        <v>4</v>
+      </c>
+      <c r="T100" s="2">
+        <v>4</v>
+      </c>
+      <c r="U100" s="2">
+        <v>4</v>
+      </c>
+      <c r="V100" s="2">
+        <v>4</v>
+      </c>
+      <c r="W100" s="2">
+        <v>4</v>
+      </c>
+      <c r="X100" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y100" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z100" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="101" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="14"/>
@@ -5863,17 +6745,39 @@
       <c r="O102" s="2">
         <v>4</v>
       </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" s="2"/>
-      <c r="R102" s="2"/>
-      <c r="S102" s="2"/>
-      <c r="T102" s="2"/>
-      <c r="U102" s="2"/>
-      <c r="V102" s="2"/>
-      <c r="W102" s="2"/>
-      <c r="X102" s="2"/>
-      <c r="Y102" s="2"/>
-      <c r="Z102" s="2"/>
+      <c r="P102" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="2">
+        <v>4</v>
+      </c>
+      <c r="R102" s="2">
+        <v>4</v>
+      </c>
+      <c r="S102" s="2">
+        <v>4</v>
+      </c>
+      <c r="T102" s="2">
+        <v>4</v>
+      </c>
+      <c r="U102" s="2">
+        <v>4</v>
+      </c>
+      <c r="V102" s="2">
+        <v>4</v>
+      </c>
+      <c r="W102" s="2">
+        <v>4</v>
+      </c>
+      <c r="X102" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y102" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z102" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="103" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13"/>
@@ -5967,17 +6871,39 @@
       <c r="O104" s="2">
         <v>8</v>
       </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" s="2"/>
-      <c r="R104" s="2"/>
-      <c r="S104" s="2"/>
-      <c r="T104" s="2"/>
-      <c r="U104" s="2"/>
-      <c r="V104" s="2"/>
-      <c r="W104" s="2"/>
-      <c r="X104" s="2"/>
-      <c r="Y104" s="2"/>
-      <c r="Z104" s="2"/>
+      <c r="P104" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q104" s="2">
+        <v>8</v>
+      </c>
+      <c r="R104" s="2">
+        <v>8</v>
+      </c>
+      <c r="S104" s="2">
+        <v>8</v>
+      </c>
+      <c r="T104" s="2">
+        <v>8</v>
+      </c>
+      <c r="U104" s="2">
+        <v>8</v>
+      </c>
+      <c r="V104" s="2">
+        <v>8</v>
+      </c>
+      <c r="W104" s="2">
+        <v>8</v>
+      </c>
+      <c r="X104" s="2">
+        <v>8</v>
+      </c>
+      <c r="Y104" s="2">
+        <v>8</v>
+      </c>
+      <c r="Z104" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="105" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
@@ -6021,17 +6947,39 @@
       <c r="O105" s="2">
         <v>4</v>
       </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" s="2"/>
-      <c r="R105" s="2"/>
-      <c r="S105" s="2"/>
-      <c r="T105" s="2"/>
-      <c r="U105" s="2"/>
-      <c r="V105" s="2"/>
-      <c r="W105" s="2"/>
-      <c r="X105" s="2"/>
-      <c r="Y105" s="2"/>
-      <c r="Z105" s="2"/>
+      <c r="P105" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q105" s="2">
+        <v>4</v>
+      </c>
+      <c r="R105" s="2">
+        <v>4</v>
+      </c>
+      <c r="S105" s="2">
+        <v>4</v>
+      </c>
+      <c r="T105" s="2">
+        <v>4</v>
+      </c>
+      <c r="U105" s="2">
+        <v>4</v>
+      </c>
+      <c r="V105" s="2">
+        <v>4</v>
+      </c>
+      <c r="W105" s="2">
+        <v>4</v>
+      </c>
+      <c r="X105" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y105" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z105" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="106" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
@@ -6075,17 +7023,39 @@
       <c r="O106" s="2">
         <v>4</v>
       </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" s="2"/>
-      <c r="R106" s="2"/>
-      <c r="S106" s="2"/>
-      <c r="T106" s="2"/>
-      <c r="U106" s="2"/>
-      <c r="V106" s="2"/>
-      <c r="W106" s="2"/>
-      <c r="X106" s="2"/>
-      <c r="Y106" s="2"/>
-      <c r="Z106" s="2"/>
+      <c r="P106" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q106" s="2">
+        <v>4</v>
+      </c>
+      <c r="R106" s="2">
+        <v>4</v>
+      </c>
+      <c r="S106" s="2">
+        <v>4</v>
+      </c>
+      <c r="T106" s="2">
+        <v>4</v>
+      </c>
+      <c r="U106" s="2">
+        <v>4</v>
+      </c>
+      <c r="V106" s="2">
+        <v>4</v>
+      </c>
+      <c r="W106" s="2">
+        <v>4</v>
+      </c>
+      <c r="X106" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y106" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z106" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="107" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="14"/>
@@ -6167,17 +7137,39 @@
       <c r="O108" s="2">
         <v>4</v>
       </c>
-      <c r="P108" s="2"/>
-      <c r="Q108" s="2"/>
-      <c r="R108" s="2"/>
-      <c r="S108" s="2"/>
-      <c r="T108" s="2"/>
-      <c r="U108" s="2"/>
-      <c r="V108" s="2"/>
-      <c r="W108" s="2"/>
-      <c r="X108" s="2"/>
-      <c r="Y108" s="2"/>
-      <c r="Z108" s="2"/>
+      <c r="P108" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q108" s="2">
+        <v>4</v>
+      </c>
+      <c r="R108" s="2">
+        <v>4</v>
+      </c>
+      <c r="S108" s="2">
+        <v>4</v>
+      </c>
+      <c r="T108" s="2">
+        <v>4</v>
+      </c>
+      <c r="U108" s="2">
+        <v>4</v>
+      </c>
+      <c r="V108" s="2">
+        <v>4</v>
+      </c>
+      <c r="W108" s="2">
+        <v>4</v>
+      </c>
+      <c r="X108" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y108" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z108" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="109" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13"/>
@@ -6273,17 +7265,39 @@
       <c r="O110" s="2">
         <v>6</v>
       </c>
-      <c r="P110" s="2"/>
-      <c r="Q110" s="2"/>
-      <c r="R110" s="2"/>
-      <c r="S110" s="2"/>
-      <c r="T110" s="2"/>
-      <c r="U110" s="2"/>
-      <c r="V110" s="2"/>
-      <c r="W110" s="2"/>
-      <c r="X110" s="2"/>
-      <c r="Y110" s="2"/>
-      <c r="Z110" s="2"/>
+      <c r="P110" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q110" s="2">
+        <v>6</v>
+      </c>
+      <c r="R110" s="2">
+        <v>6</v>
+      </c>
+      <c r="S110" s="2">
+        <v>6</v>
+      </c>
+      <c r="T110" s="2">
+        <v>6</v>
+      </c>
+      <c r="U110" s="2">
+        <v>6</v>
+      </c>
+      <c r="V110" s="2">
+        <v>6</v>
+      </c>
+      <c r="W110" s="2">
+        <v>6</v>
+      </c>
+      <c r="X110" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y110" s="2">
+        <v>6</v>
+      </c>
+      <c r="Z110" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="111" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13"/>
@@ -6327,17 +7341,39 @@
       <c r="O111" s="2">
         <v>6</v>
       </c>
-      <c r="P111" s="2"/>
-      <c r="Q111" s="2"/>
-      <c r="R111" s="2"/>
-      <c r="S111" s="2"/>
-      <c r="T111" s="2"/>
-      <c r="U111" s="2"/>
-      <c r="V111" s="2"/>
-      <c r="W111" s="2"/>
-      <c r="X111" s="2"/>
-      <c r="Y111" s="2"/>
-      <c r="Z111" s="2"/>
+      <c r="P111" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q111" s="2">
+        <v>6</v>
+      </c>
+      <c r="R111" s="2">
+        <v>6</v>
+      </c>
+      <c r="S111" s="2">
+        <v>6</v>
+      </c>
+      <c r="T111" s="2">
+        <v>6</v>
+      </c>
+      <c r="U111" s="2">
+        <v>6</v>
+      </c>
+      <c r="V111" s="2">
+        <v>6</v>
+      </c>
+      <c r="W111" s="2">
+        <v>6</v>
+      </c>
+      <c r="X111" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y111" s="2">
+        <v>6</v>
+      </c>
+      <c r="Z111" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="112" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13"/>
@@ -6381,17 +7417,39 @@
       <c r="O112" s="2">
         <v>2</v>
       </c>
-      <c r="P112" s="2"/>
-      <c r="Q112" s="2"/>
-      <c r="R112" s="2"/>
-      <c r="S112" s="2"/>
-      <c r="T112" s="2"/>
-      <c r="U112" s="2"/>
-      <c r="V112" s="2"/>
-      <c r="W112" s="2"/>
-      <c r="X112" s="2"/>
-      <c r="Y112" s="2"/>
-      <c r="Z112" s="2"/>
+      <c r="P112" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q112" s="2">
+        <v>2</v>
+      </c>
+      <c r="R112" s="2">
+        <v>2</v>
+      </c>
+      <c r="S112" s="2">
+        <v>2</v>
+      </c>
+      <c r="T112" s="2">
+        <v>2</v>
+      </c>
+      <c r="U112" s="2">
+        <v>2</v>
+      </c>
+      <c r="V112" s="2">
+        <v>2</v>
+      </c>
+      <c r="W112" s="2">
+        <v>2</v>
+      </c>
+      <c r="X112" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y112" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z112" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="113" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="14"/>
@@ -6473,17 +7531,39 @@
       <c r="O114" s="2">
         <v>4</v>
       </c>
-      <c r="P114" s="2"/>
-      <c r="Q114" s="2"/>
-      <c r="R114" s="2"/>
-      <c r="S114" s="2"/>
-      <c r="T114" s="2"/>
-      <c r="U114" s="2"/>
-      <c r="V114" s="2"/>
-      <c r="W114" s="2"/>
-      <c r="X114" s="2"/>
-      <c r="Y114" s="2"/>
-      <c r="Z114" s="2"/>
+      <c r="P114" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q114" s="2">
+        <v>4</v>
+      </c>
+      <c r="R114" s="2">
+        <v>4</v>
+      </c>
+      <c r="S114" s="2">
+        <v>4</v>
+      </c>
+      <c r="T114" s="2">
+        <v>4</v>
+      </c>
+      <c r="U114" s="2">
+        <v>4</v>
+      </c>
+      <c r="V114" s="2">
+        <v>4</v>
+      </c>
+      <c r="W114" s="2">
+        <v>4</v>
+      </c>
+      <c r="X114" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y114" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z114" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="115" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13"/>
@@ -6575,17 +7655,39 @@
       <c r="O116" s="2">
         <v>8</v>
       </c>
-      <c r="P116" s="2"/>
-      <c r="Q116" s="2"/>
-      <c r="R116" s="2"/>
-      <c r="S116" s="2"/>
-      <c r="T116" s="2"/>
-      <c r="U116" s="2"/>
-      <c r="V116" s="2"/>
-      <c r="W116" s="2"/>
-      <c r="X116" s="2"/>
-      <c r="Y116" s="2"/>
-      <c r="Z116" s="2"/>
+      <c r="P116" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q116" s="2">
+        <v>8</v>
+      </c>
+      <c r="R116" s="2">
+        <v>8</v>
+      </c>
+      <c r="S116" s="2">
+        <v>8</v>
+      </c>
+      <c r="T116" s="2">
+        <v>8</v>
+      </c>
+      <c r="U116" s="2">
+        <v>8</v>
+      </c>
+      <c r="V116" s="2">
+        <v>8</v>
+      </c>
+      <c r="W116" s="2">
+        <v>8</v>
+      </c>
+      <c r="X116" s="2">
+        <v>8</v>
+      </c>
+      <c r="Y116" s="2">
+        <v>8</v>
+      </c>
+      <c r="Z116" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117" s="13"/>
@@ -6629,17 +7731,39 @@
       <c r="O117" s="2">
         <v>4</v>
       </c>
-      <c r="P117" s="2"/>
-      <c r="Q117" s="2"/>
-      <c r="R117" s="2"/>
-      <c r="S117" s="2"/>
-      <c r="T117" s="2"/>
-      <c r="U117" s="2"/>
-      <c r="V117" s="2"/>
-      <c r="W117" s="2"/>
-      <c r="X117" s="2"/>
-      <c r="Y117" s="2"/>
-      <c r="Z117" s="2"/>
+      <c r="P117" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q117" s="2">
+        <v>4</v>
+      </c>
+      <c r="R117" s="2">
+        <v>4</v>
+      </c>
+      <c r="S117" s="2">
+        <v>4</v>
+      </c>
+      <c r="T117" s="2">
+        <v>4</v>
+      </c>
+      <c r="U117" s="2">
+        <v>4</v>
+      </c>
+      <c r="V117" s="2">
+        <v>4</v>
+      </c>
+      <c r="W117" s="2">
+        <v>4</v>
+      </c>
+      <c r="X117" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y117" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z117" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118" s="13"/>
@@ -6683,17 +7807,39 @@
       <c r="O118" s="2">
         <v>4</v>
       </c>
-      <c r="P118" s="2"/>
-      <c r="Q118" s="2"/>
-      <c r="R118" s="2"/>
-      <c r="S118" s="2"/>
-      <c r="T118" s="2"/>
-      <c r="U118" s="2"/>
-      <c r="V118" s="2"/>
-      <c r="W118" s="2"/>
-      <c r="X118" s="2"/>
-      <c r="Y118" s="2"/>
-      <c r="Z118" s="2"/>
+      <c r="P118" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q118" s="2">
+        <v>4</v>
+      </c>
+      <c r="R118" s="2">
+        <v>4</v>
+      </c>
+      <c r="S118" s="2">
+        <v>4</v>
+      </c>
+      <c r="T118" s="2">
+        <v>4</v>
+      </c>
+      <c r="U118" s="2">
+        <v>4</v>
+      </c>
+      <c r="V118" s="2">
+        <v>4</v>
+      </c>
+      <c r="W118" s="2">
+        <v>4</v>
+      </c>
+      <c r="X118" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y118" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z118" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" s="14"/>
@@ -6775,51 +7921,51 @@
       </c>
       <c r="O120" s="2">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="P120" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="Q120" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="R120" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="S120" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="T120" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="U120" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="V120" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="W120" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="X120" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="Y120" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="Z120" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
@@ -7191,47 +8337,47 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A108:A113"/>
-    <mergeCell ref="B108:B113"/>
-    <mergeCell ref="A114:A119"/>
-    <mergeCell ref="B114:B119"/>
-    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="A85:A90"/>
+    <mergeCell ref="B85:B90"/>
     <mergeCell ref="A91:A95"/>
     <mergeCell ref="B91:B95"/>
     <mergeCell ref="A96:A101"/>
     <mergeCell ref="B96:B101"/>
     <mergeCell ref="A102:A107"/>
     <mergeCell ref="B102:B107"/>
-    <mergeCell ref="B74:B79"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="A85:A90"/>
-    <mergeCell ref="B85:B90"/>
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="B62:B67"/>
-    <mergeCell ref="A68:A73"/>
-    <mergeCell ref="B68:B73"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A108:A113"/>
+    <mergeCell ref="B108:B113"/>
+    <mergeCell ref="A114:A119"/>
+    <mergeCell ref="B114:B119"/>
+    <mergeCell ref="D120:E120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
